--- a/xlsx/FR/investments_fair_FR.xlsx
+++ b/xlsx/FR/investments_fair_FR.xlsx
@@ -12,30 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Green infrastructure program is fair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither agree or disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly agree</t>
   </si>
 </sst>
 </file>
@@ -374,67 +371,45 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.204944555347326</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0505778878241464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.244554338774632</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.0874247614080387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.248694436345023</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.375275867065452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.301806669533019</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.363639485727543</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.12308199797482</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/investments_fair_FR.xlsx
+++ b/xlsx/FR/investments_fair_FR.xlsx
@@ -377,7 +377,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0505778878241464</v>
+        <v>0.0425271303073892</v>
       </c>
     </row>
     <row r="3">
@@ -385,7 +385,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0874247614080387</v>
+        <v>0.0968997123713056</v>
       </c>
     </row>
     <row r="4">
@@ -393,7 +393,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.375275867065452</v>
+        <v>0.373088404345516</v>
       </c>
     </row>
     <row r="5">
@@ -401,7 +401,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.363639485727543</v>
+        <v>0.34852350572098</v>
       </c>
     </row>
     <row r="6">
@@ -409,7 +409,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.12308199797482</v>
+        <v>0.138961247254809</v>
       </c>
     </row>
   </sheetData>
